--- a/outputs-HGR-r202/test-f__Muribaculaceae_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-f__Muribaculaceae_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>Row</t>
   </si>
@@ -109,7 +109,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -119,14 +119,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -154,45 +158,45 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -230,7 +234,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -268,7 +272,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -306,7 +310,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -344,269 +348,269 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>9.3319779129870583e-12</v>
+      </c>
+      <c r="C6">
+        <v>0.99819796053857013</v>
+      </c>
+      <c r="D6">
+        <v>2.4904363767397477e-07</v>
+      </c>
+      <c r="E6">
+        <v>5.808626441916709e-05</v>
+      </c>
+      <c r="F6">
+        <v>0.00054198997328967899</v>
+      </c>
+      <c r="G6">
+        <v>3.6884115488845329e-05</v>
+      </c>
+      <c r="H6">
+        <v>1.0533882881317812e-05</v>
+      </c>
+      <c r="I6">
+        <v>0.0011324197479630988</v>
+      </c>
+      <c r="J6">
+        <v>7.3658133418712571e-06</v>
+      </c>
+      <c r="K6">
+        <v>1.4510611076417381e-05</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>5.6275716120366205e-07</v>
+      </c>
+      <c r="C7">
+        <v>3.560365108937878e-05</v>
+      </c>
+      <c r="D7">
+        <v>0.98301989567104053</v>
+      </c>
+      <c r="E7">
+        <v>1.0397346935453612e-05</v>
+      </c>
+      <c r="F7">
+        <v>0.00020818331452673487</v>
+      </c>
+      <c r="G7">
+        <v>2.5817706608549369e-05</v>
+      </c>
+      <c r="H7">
+        <v>0.0038838590415308</v>
+      </c>
+      <c r="I7">
+        <v>1.7663373997311541e-05</v>
+      </c>
+      <c r="J7">
+        <v>4.2804676093301026e-05</v>
+      </c>
+      <c r="K7">
+        <v>0.012755212461016931</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>0.0014932884368590873</v>
+      </c>
+      <c r="C8">
+        <v>1.0531802502174485e-06</v>
+      </c>
+      <c r="D8">
+        <v>0.00093461534054023086</v>
+      </c>
+      <c r="E8">
+        <v>0.0055630687973879179</v>
+      </c>
+      <c r="F8">
+        <v>0.99156230934728828</v>
+      </c>
+      <c r="G8">
+        <v>2.5770238658145561e-06</v>
+      </c>
+      <c r="H8">
+        <v>4.5648589509989286e-05</v>
+      </c>
+      <c r="I8">
+        <v>3.016755698397836e-05</v>
+      </c>
+      <c r="J8">
+        <v>3.5276271327940354e-07</v>
+      </c>
+      <c r="K8">
+        <v>0.00036691896460106177</v>
+      </c>
+      <c r="L8">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>5.3784479297499451e-11</v>
-      </c>
-      <c r="C6">
-        <v>1.3206707538252005e-05</v>
-      </c>
-      <c r="D6">
-        <v>0.94483681571907696</v>
-      </c>
-      <c r="E6">
-        <v>2.2386024272178514e-05</v>
-      </c>
-      <c r="F6">
-        <v>4.5592632661988715e-06</v>
-      </c>
-      <c r="G6">
-        <v>8.6528395399537851e-07</v>
-      </c>
-      <c r="H6">
-        <v>0.00011825517821746428</v>
-      </c>
-      <c r="I6">
-        <v>0.053047965578073092</v>
-      </c>
-      <c r="J6">
-        <v>0.0017666540092290016</v>
-      </c>
-      <c r="K6">
-        <v>0.00018929218258841092</v>
-      </c>
-      <c r="L6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>9.3319779129870583e-12</v>
-      </c>
-      <c r="C7">
-        <v>0.99819796053857013</v>
-      </c>
-      <c r="D7">
-        <v>2.4904363767397477e-07</v>
-      </c>
-      <c r="E7">
-        <v>5.808626441916709e-05</v>
-      </c>
-      <c r="F7">
-        <v>0.00054198997328967899</v>
-      </c>
-      <c r="G7">
-        <v>3.6884115488845329e-05</v>
-      </c>
-      <c r="H7">
-        <v>1.0533882881317812e-05</v>
-      </c>
-      <c r="I7">
-        <v>0.0011324197479630988</v>
-      </c>
-      <c r="J7">
-        <v>7.3658133418712571e-06</v>
-      </c>
-      <c r="K7">
-        <v>1.4510611076417381e-05</v>
-      </c>
-      <c r="L7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>5.6275716120366205e-07</v>
-      </c>
-      <c r="C8">
-        <v>3.560365108937878e-05</v>
-      </c>
-      <c r="D8">
-        <v>0.98301989567104053</v>
-      </c>
-      <c r="E8">
-        <v>1.0397346935453612e-05</v>
-      </c>
-      <c r="F8">
-        <v>0.00020818331452673487</v>
-      </c>
-      <c r="G8">
-        <v>2.5817706608549369e-05</v>
-      </c>
-      <c r="H8">
-        <v>0.0038838590415308</v>
-      </c>
-      <c r="I8">
-        <v>1.7663373997311541e-05</v>
-      </c>
-      <c r="J8">
-        <v>4.2804676093301026e-05</v>
-      </c>
-      <c r="K8">
-        <v>0.012755212461016931</v>
-      </c>
-      <c r="L8">
-        <v>3</v>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
+      <c r="A9" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>5.0273756582145739e-07</v>
+        <v>8.0943959832773896e-07</v>
       </c>
       <c r="C9">
-        <v>0.0093492777458601319</v>
+        <v>0.00085804266032534502</v>
       </c>
       <c r="D9">
-        <v>0.58474988870301858</v>
+        <v>0.98587586649612735</v>
       </c>
       <c r="E9">
-        <v>0.01213012312253412</v>
+        <v>1.8410719557620643e-05</v>
       </c>
       <c r="F9">
-        <v>0.00088566640125758739</v>
+        <v>0.0020298815707892014</v>
       </c>
       <c r="G9">
-        <v>9.0795850106195318e-05</v>
+        <v>3.8818554073306672e-05</v>
       </c>
       <c r="H9">
-        <v>0.35672331880252389</v>
+        <v>0.0038410760426150952</v>
       </c>
       <c r="I9">
-        <v>0.031410759206504005</v>
+        <v>6.1151822732328118e-05</v>
       </c>
       <c r="J9">
-        <v>0.00049148480863540423</v>
+        <v>0.00016524427625392649</v>
       </c>
       <c r="K9">
-        <v>0.0041681826219941223</v>
+        <v>0.0071106984179275835</v>
       </c>
       <c r="L9">
         <v>3</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
+      <c r="A10" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.0014932884368590873</v>
+        <v>0.0010474165592829778</v>
       </c>
       <c r="C10">
-        <v>1.0531802502174485e-06</v>
+        <v>5.8755823282730262e-06</v>
       </c>
       <c r="D10">
-        <v>0.00093461534054023086</v>
+        <v>0.00033893165087850566</v>
       </c>
       <c r="E10">
-        <v>0.0055630687973879179</v>
+        <v>0.99413315252470447</v>
       </c>
       <c r="F10">
-        <v>0.99156230934728828</v>
+        <v>0.0022543278639256428</v>
       </c>
       <c r="G10">
-        <v>2.5770238658145561e-06</v>
+        <v>0.00050433383305203527</v>
       </c>
       <c r="H10">
-        <v>4.5648589509989286e-05</v>
+        <v>4.9721964884873193e-05</v>
       </c>
       <c r="I10">
-        <v>3.016755698397836e-05</v>
+        <v>0.0016068199166788368</v>
       </c>
       <c r="J10">
-        <v>3.5276271327940354e-07</v>
+        <v>7.7335772413569612e-08</v>
       </c>
       <c r="K10">
-        <v>0.00036691896460106177</v>
+        <v>5.9342768492158041e-05</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
+      <c r="A11" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>8.0943959832773896e-07</v>
+        <v>2.2202296186237346e-14</v>
       </c>
       <c r="C11">
-        <v>0.00085804266032534502</v>
+        <v>3.190356985506817e-08</v>
       </c>
       <c r="D11">
-        <v>0.98587586649612735</v>
+        <v>0.99902248821077144</v>
       </c>
       <c r="E11">
-        <v>1.8410719557620643e-05</v>
+        <v>3.4209442795576937e-09</v>
       </c>
       <c r="F11">
-        <v>0.0020298815707892014</v>
+        <v>5.9952873468071743e-10</v>
       </c>
       <c r="G11">
-        <v>3.8818554073306672e-05</v>
+        <v>2.2202296186237346e-14</v>
       </c>
       <c r="H11">
-        <v>0.0038410760426150952</v>
+        <v>1.7941419048341851e-08</v>
       </c>
       <c r="I11">
-        <v>6.1151822732328118e-05</v>
+        <v>1.3788777681238299e-11</v>
       </c>
       <c r="J11">
-        <v>0.00016524427625392649</v>
+        <v>0.00097744736823584307</v>
       </c>
       <c r="K11">
-        <v>0.0071106984179275835</v>
+        <v>1.0541697755107357e-08</v>
       </c>
       <c r="L11">
         <v>3</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
+      <c r="A12" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0010474165592829778</v>
+        <v>0.02060473627867615</v>
       </c>
       <c r="C12">
-        <v>5.8755823282730262e-06</v>
+        <v>2.7367761632850744e-08</v>
       </c>
       <c r="D12">
-        <v>0.00033893165087850566</v>
+        <v>0.00024351882923230933</v>
       </c>
       <c r="E12">
-        <v>0.99413315252470447</v>
+        <v>0.0048541780913896977</v>
       </c>
       <c r="F12">
-        <v>0.0022543278639256428</v>
+        <v>0.97363822807425815</v>
       </c>
       <c r="G12">
-        <v>0.00050433383305203527</v>
+        <v>3.5684384452528529e-06</v>
       </c>
       <c r="H12">
-        <v>4.9721964884873193e-05</v>
+        <v>0.00038398793247629677</v>
       </c>
       <c r="I12">
-        <v>0.0016068199166788368</v>
+        <v>0.0002521551196858759</v>
       </c>
       <c r="J12">
-        <v>7.7335772413569612e-08</v>
+        <v>5.1684122987335473e-07</v>
       </c>
       <c r="K12">
-        <v>5.9342768492158041e-05</v>
+        <v>1.9083026844605278e-05</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
